--- a/Результат_обработки/05_12_2022.xlsx
+++ b/Результат_обработки/05_12_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>key_words_find</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>territory_status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -573,6 +578,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -635,6 +643,9 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,6 +712,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -765,6 +779,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -829,6 +846,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -895,6 +915,11 @@
           <t>отключение электроэнергия, отключение электроэнергия, днр, мариуполь</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[['днр', 'В зоне ДНР/ЛНР'], ['мариуполь', 'В зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -959,6 +984,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1023,6 +1051,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1091,6 +1122,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1155,6 +1189,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1219,6 +1256,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1283,6 +1323,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1347,6 +1390,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1413,6 +1459,11 @@
           <t>отключение электроэнергия, белгород</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[['белгород', 'Не в зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1477,6 +1528,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1541,6 +1595,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1605,6 +1662,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1669,6 +1729,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1733,6 +1796,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1799,6 +1865,9 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2092,6 +2161,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2156,6 +2228,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2220,6 +2295,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2284,6 +2362,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2348,6 +2429,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2412,6 +2496,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2476,6 +2563,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2540,6 +2630,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2604,6 +2697,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2668,6 +2764,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2732,6 +2831,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2792,6 +2894,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2856,6 +2961,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2920,6 +3028,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2984,6 +3095,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3048,6 +3162,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3112,6 +3229,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3176,6 +3296,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3240,6 +3363,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3304,6 +3430,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3368,6 +3497,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3434,6 +3566,11 @@
           <t>отключение электроэнергия, краснодар, краснодар, краснодар</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[['краснодар', 'Не в зоне ДНР/ЛНР'], ['краснодар', 'Не в зоне ДНР/ЛНР'], ['краснодар', 'Не в зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3498,6 +3635,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3562,6 +3702,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3626,6 +3769,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3690,6 +3836,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3754,6 +3903,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3818,6 +3970,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3882,6 +4037,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3946,6 +4104,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4010,6 +4171,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4074,6 +4238,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4138,6 +4305,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4202,6 +4372,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4266,6 +4439,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4330,6 +4506,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4394,6 +4573,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4458,6 +4640,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4522,6 +4707,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4586,6 +4774,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4650,6 +4841,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4714,6 +4908,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4780,6 +4977,11 @@
           <t>отключение отопление, краснодар, краснодар, краснодар, краснодар</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[['краснодар', 'Не в зоне ДНР/ЛНР'], ['краснодар', 'Не в зоне ДНР/ЛНР'], ['краснодар', 'Не в зоне ДНР/ЛНР'], ['краснодар', 'Не в зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4844,6 +5046,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4908,6 +5113,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4972,6 +5180,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5036,6 +5247,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5100,6 +5314,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5164,6 +5381,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5232,6 +5452,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5298,6 +5521,11 @@
           <t>отключение электроэнергия, донбасс</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[['донбасс', 'В зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5362,6 +5590,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5426,6 +5657,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5490,6 +5724,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5554,6 +5791,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5618,6 +5858,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5682,6 +5925,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5746,6 +5992,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5810,6 +6059,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5874,6 +6126,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5938,6 +6193,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6002,6 +6260,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6066,6 +6327,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6130,6 +6394,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6194,6 +6461,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6258,6 +6528,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6322,6 +6595,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6386,6 +6662,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6450,6 +6729,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6516,6 +6798,11 @@
           <t>отключение электроэнергия, днр, лнр, лнр, славянск</t>
         </is>
       </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[['днр', 'В зоне ДНР/ЛНР'], ['лнр', 'В зоне ДНР/ЛНР'], ['лнр', 'В зоне ДНР/ЛНР'], ['славянск', 'Не в зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6582,6 +6869,11 @@
           <t>отключение электроэнергия, донбасс</t>
         </is>
       </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[['донбасс', 'В зоне ДНР/ЛНР']]</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6646,6 +6938,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6710,6 +7005,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6774,6 +7072,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6838,6 +7139,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6902,6 +7206,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6966,6 +7273,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7030,6 +7340,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7094,6 +7407,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7158,6 +7474,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7222,6 +7541,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7286,6 +7608,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7350,6 +7675,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7414,6 +7742,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7478,6 +7809,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7542,6 +7876,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7606,6 +7943,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7670,6 +8010,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7732,6 +8075,9 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
         <v>0</v>
       </c>
     </row>
